--- a/natmiOut/OldD0/LR-pairs_lrc2p/Icam5-Itgal.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Icam5-Itgal.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.61092678597211</v>
+        <v>4.062756666666667</v>
       </c>
       <c r="H2">
-        <v>1.61092678597211</v>
+        <v>12.18827</v>
       </c>
       <c r="I2">
-        <v>0.4747555266995243</v>
+        <v>0.6829811567947219</v>
       </c>
       <c r="J2">
-        <v>0.4747555266995243</v>
+        <v>0.6829811567947218</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.33384956228497</v>
+        <v>25.15544366666667</v>
       </c>
       <c r="N2">
-        <v>2.33384956228497</v>
+        <v>75.466331</v>
       </c>
       <c r="O2">
-        <v>0.7539944441588657</v>
+        <v>0.9701024243751556</v>
       </c>
       <c r="P2">
-        <v>0.7539944441588657</v>
+        <v>0.9701024243751556</v>
       </c>
       <c r="Q2">
-        <v>3.759660774314142</v>
+        <v>102.2004464597078</v>
       </c>
       <c r="R2">
-        <v>3.759660774314142</v>
+        <v>919.80401813737</v>
       </c>
       <c r="S2">
-        <v>0.3579630294651573</v>
+        <v>0.662561676009108</v>
       </c>
       <c r="T2">
-        <v>0.3579630294651573</v>
+        <v>0.6625616760091079</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.61092678597211</v>
+        <v>4.062756666666667</v>
       </c>
       <c r="H3">
-        <v>1.61092678597211</v>
+        <v>12.18827</v>
       </c>
       <c r="I3">
-        <v>0.4747555266995243</v>
+        <v>0.6829811567947219</v>
       </c>
       <c r="J3">
-        <v>0.4747555266995243</v>
+        <v>0.6829811567947218</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.61643448795617</v>
+        <v>0.6301496666666666</v>
       </c>
       <c r="N3">
-        <v>0.61643448795617</v>
+        <v>1.890449</v>
       </c>
       <c r="O3">
-        <v>0.1991508735686518</v>
+        <v>0.02430128951224074</v>
       </c>
       <c r="P3">
-        <v>0.1991508735686518</v>
+        <v>0.02430128951224074</v>
       </c>
       <c r="Q3">
-        <v>0.9930308284455962</v>
+        <v>2.560144759247778</v>
       </c>
       <c r="R3">
-        <v>0.9930308284455962</v>
+        <v>23.04130283323</v>
       </c>
       <c r="S3">
-        <v>0.09454797787375563</v>
+        <v>0.01659732282267363</v>
       </c>
       <c r="T3">
-        <v>0.09454797787375563</v>
+        <v>0.01659732282267362</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.61092678597211</v>
+        <v>4.062756666666667</v>
       </c>
       <c r="H4">
-        <v>1.61092678597211</v>
+        <v>12.18827</v>
       </c>
       <c r="I4">
-        <v>0.4747555266995243</v>
+        <v>0.6829811567947219</v>
       </c>
       <c r="J4">
-        <v>0.4747555266995243</v>
+        <v>0.6829811567947218</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.145029954212228</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N4">
-        <v>0.145029954212228</v>
+        <v>0.435347</v>
       </c>
       <c r="O4">
-        <v>0.04685468227248249</v>
+        <v>0.005596286112603657</v>
       </c>
       <c r="P4">
-        <v>0.04685468227248249</v>
+        <v>0.005596286112603657</v>
       </c>
       <c r="Q4">
-        <v>0.2336326380087867</v>
+        <v>0.5895696421877779</v>
       </c>
       <c r="R4">
-        <v>0.2336326380087867</v>
+        <v>5.30612677969</v>
       </c>
       <c r="S4">
-        <v>0.02224451936061128</v>
+        <v>0.003822157962940283</v>
       </c>
       <c r="T4">
-        <v>0.02224451936061128</v>
+        <v>0.003822157962940283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.78224442610664</v>
+        <v>1.885806666666667</v>
       </c>
       <c r="H5">
-        <v>1.78224442610664</v>
+        <v>5.65742</v>
       </c>
       <c r="I5">
-        <v>0.5252444733004757</v>
+        <v>0.3170188432052781</v>
       </c>
       <c r="J5">
-        <v>0.5252444733004757</v>
+        <v>0.3170188432052781</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.33384956228497</v>
+        <v>25.15544366666667</v>
       </c>
       <c r="N5">
-        <v>2.33384956228497</v>
+        <v>75.466331</v>
       </c>
       <c r="O5">
-        <v>0.7539944441588657</v>
+        <v>0.9701024243751556</v>
       </c>
       <c r="P5">
-        <v>0.7539944441588657</v>
+        <v>0.9701024243751556</v>
       </c>
       <c r="Q5">
-        <v>4.159490373753809</v>
+        <v>47.43830336955778</v>
       </c>
       <c r="R5">
-        <v>4.159490373753809</v>
+        <v>426.94473032602</v>
       </c>
       <c r="S5">
-        <v>0.3960314146937084</v>
+        <v>0.3075407483660476</v>
       </c>
       <c r="T5">
-        <v>0.3960314146937084</v>
+        <v>0.3075407483660476</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.78224442610664</v>
+        <v>1.885806666666667</v>
       </c>
       <c r="H6">
-        <v>1.78224442610664</v>
+        <v>5.65742</v>
       </c>
       <c r="I6">
-        <v>0.5252444733004757</v>
+        <v>0.3170188432052781</v>
       </c>
       <c r="J6">
-        <v>0.5252444733004757</v>
+        <v>0.3170188432052781</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.61643448795617</v>
+        <v>0.6301496666666666</v>
       </c>
       <c r="N6">
-        <v>0.61643448795617</v>
+        <v>1.890449</v>
       </c>
       <c r="O6">
-        <v>0.1991508735686518</v>
+        <v>0.02430128951224074</v>
       </c>
       <c r="P6">
-        <v>0.1991508735686518</v>
+        <v>0.02430128951224074</v>
       </c>
       <c r="Q6">
-        <v>1.098636930219784</v>
+        <v>1.188340442397778</v>
       </c>
       <c r="R6">
-        <v>1.098636930219784</v>
+        <v>10.69506398158</v>
       </c>
       <c r="S6">
-        <v>0.1046028956948961</v>
+        <v>0.007703966689567117</v>
       </c>
       <c r="T6">
-        <v>0.1046028956948961</v>
+        <v>0.007703966689567117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.78224442610664</v>
+        <v>1.885806666666667</v>
       </c>
       <c r="H7">
-        <v>1.78224442610664</v>
+        <v>5.65742</v>
       </c>
       <c r="I7">
-        <v>0.5252444733004757</v>
+        <v>0.3170188432052781</v>
       </c>
       <c r="J7">
-        <v>0.5252444733004757</v>
+        <v>0.3170188432052781</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.145029954212228</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N7">
-        <v>0.145029954212228</v>
+        <v>0.435347</v>
       </c>
       <c r="O7">
-        <v>0.04685468227248249</v>
+        <v>0.005596286112603657</v>
       </c>
       <c r="P7">
-        <v>0.04685468227248249</v>
+        <v>0.005596286112603657</v>
       </c>
       <c r="Q7">
-        <v>0.2584788275132446</v>
+        <v>0.2736600916377778</v>
       </c>
       <c r="R7">
-        <v>0.2584788275132446</v>
+        <v>2.46294082474</v>
       </c>
       <c r="S7">
-        <v>0.0246101629118712</v>
+        <v>0.001774128149663374</v>
       </c>
       <c r="T7">
-        <v>0.0246101629118712</v>
+        <v>0.001774128149663374</v>
       </c>
     </row>
   </sheetData>
